--- a/app/Licenciatura_em_Ciencias_de_Informacao_Geografica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Ciencias_de_Informacao_Geografica_Pos_Laboral.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Antonio  Zunguene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Celeste Luis Macandja</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Solteiro</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>Helena Quinhenta Tivane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -344,9 +335,6 @@
     <t>Maria EsperanÇa A. Lipondo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100102500142I</t>
   </si>
   <si>
@@ -416,9 +404,6 @@
     <t>Maria De Fatima Muiambo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101703173S</t>
   </si>
   <si>
@@ -443,9 +428,6 @@
     <t>Orlinda Paundane Zunguene</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100895131B</t>
   </si>
   <si>
@@ -1221,9 +1203,6 @@
   </si>
   <si>
     <t>Lionicia Solomao Matsinhe</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
   </si>
   <si>
     <t>110501311107P</t>
@@ -2816,7 +2795,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2832,7 +2811,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2848,7 +2827,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2864,7 +2843,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2880,7 +2859,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2895,9 +2874,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2905,7 +2882,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2916,7 +2893,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2925,7 +2902,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2937,7 +2914,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2945,7 +2922,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3041,7 +3018,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3084,7 +3061,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3411,7 +3388,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3427,7 +3404,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3443,7 +3420,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3459,7 +3436,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3475,7 +3452,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3490,9 +3467,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3500,7 +3475,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3511,7 +3486,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3520,7 +3495,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3532,7 +3507,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3540,7 +3515,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3636,7 +3611,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3679,7 +3654,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4006,7 +3981,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4022,7 +3997,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4038,7 +4013,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4054,7 +4029,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4070,7 +4045,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4085,9 +4060,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4095,7 +4068,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4106,7 +4079,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4115,7 +4088,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4127,7 +4100,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4135,7 +4108,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4231,7 +4204,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4274,7 +4247,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4601,7 +4574,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4617,7 +4590,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4633,7 +4606,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4649,7 +4622,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4665,7 +4638,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4680,9 +4653,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4690,7 +4661,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4701,7 +4672,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4710,7 +4681,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4722,7 +4693,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4730,7 +4701,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4826,7 +4797,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4869,7 +4840,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5196,7 +5167,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5212,7 +5183,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5228,7 +5199,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5244,7 +5215,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5260,7 +5231,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5275,9 +5246,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5285,7 +5254,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5296,7 +5265,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5305,7 +5274,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5317,7 +5286,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5325,7 +5294,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5421,7 +5390,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5464,7 +5433,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5791,7 +5760,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5807,7 +5776,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5823,7 +5792,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5839,7 +5808,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5855,7 +5824,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5870,9 +5839,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5880,7 +5847,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5891,7 +5858,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5900,7 +5867,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5912,7 +5879,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5920,7 +5887,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6016,7 +5983,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6059,7 +6026,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6386,7 +6353,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6402,7 +6369,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6418,7 +6385,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6434,7 +6401,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6450,7 +6417,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6465,9 +6432,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6475,7 +6440,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6486,7 +6451,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6495,7 +6460,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6507,7 +6472,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6515,7 +6480,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6611,7 +6576,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6654,7 +6619,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6981,7 +6946,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6997,7 +6962,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7013,7 +6978,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7029,7 +6994,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7045,7 +7010,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7060,9 +7025,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7070,7 +7033,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7081,7 +7044,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7090,7 +7053,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7102,7 +7065,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7110,7 +7073,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7206,7 +7169,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7249,7 +7212,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7576,7 +7539,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7592,7 +7555,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7608,7 +7571,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7624,7 +7587,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7640,7 +7603,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7655,9 +7618,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7665,7 +7626,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7676,7 +7637,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7685,7 +7646,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7697,7 +7658,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7705,7 +7666,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7801,7 +7762,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7844,7 +7805,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8171,7 +8132,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8187,7 +8148,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8203,7 +8164,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8219,7 +8180,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8235,7 +8196,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8250,9 +8211,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8260,7 +8219,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8271,7 +8230,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8280,7 +8239,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8292,7 +8251,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8300,7 +8259,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8396,7 +8355,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8439,7 +8398,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8843,9 +8802,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8853,7 +8810,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8864,7 +8821,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8873,7 +8830,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8885,7 +8842,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8893,7 +8850,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8989,7 +8946,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9032,7 +8989,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9359,7 +9316,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9375,7 +9332,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9391,7 +9348,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9407,7 +9364,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9423,7 +9380,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9438,9 +9395,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9448,7 +9403,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9459,7 +9414,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9468,7 +9423,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9480,7 +9435,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9488,7 +9443,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9584,7 +9539,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9627,7 +9582,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9954,7 +9909,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9970,7 +9925,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9986,7 +9941,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10002,7 +9957,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10018,7 +9973,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10033,9 +9988,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10043,7 +9996,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10054,7 +10007,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10063,7 +10016,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10075,7 +10028,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10083,7 +10036,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10179,7 +10132,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10222,7 +10175,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10549,7 +10502,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10565,7 +10518,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10581,7 +10534,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10597,7 +10550,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10613,7 +10566,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10628,9 +10581,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10638,7 +10589,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10649,7 +10600,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10658,7 +10609,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10670,7 +10621,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10678,7 +10629,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10774,7 +10725,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10817,7 +10768,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11144,7 +11095,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11160,7 +11111,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11176,7 +11127,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11192,7 +11143,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11208,7 +11159,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11223,9 +11174,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11233,7 +11182,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11244,7 +11193,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11253,7 +11202,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11265,7 +11214,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11273,7 +11222,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11369,7 +11318,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11412,7 +11361,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11739,7 +11688,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11755,7 +11704,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11771,7 +11720,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11787,7 +11736,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11803,7 +11752,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11818,9 +11767,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11828,7 +11775,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11839,7 +11786,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11848,7 +11795,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11860,7 +11807,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11868,7 +11815,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11964,7 +11911,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12007,7 +11954,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12334,7 +12281,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12350,7 +12297,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12366,7 +12313,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12382,7 +12329,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12398,7 +12345,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12413,9 +12360,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12423,7 +12368,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12434,7 +12379,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12443,7 +12388,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12455,7 +12400,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12463,7 +12408,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12559,7 +12504,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12602,7 +12547,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12929,7 +12874,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12945,7 +12890,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12961,7 +12906,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12977,7 +12922,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12993,7 +12938,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13008,9 +12953,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13018,7 +12961,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13029,7 +12972,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13038,7 +12981,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13050,7 +12993,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13058,7 +13001,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13154,7 +13097,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13197,7 +13140,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13524,7 +13467,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13540,7 +13483,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13556,7 +13499,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13572,7 +13515,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13588,7 +13531,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13603,9 +13546,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13613,7 +13554,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13624,7 +13565,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13633,7 +13574,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13645,7 +13586,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13653,7 +13594,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13749,7 +13690,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13792,7 +13733,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14119,7 +14060,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14135,7 +14076,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14151,7 +14092,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14167,7 +14108,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14183,7 +14124,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14198,9 +14139,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14208,7 +14147,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14219,7 +14158,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14228,7 +14167,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14240,7 +14179,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14248,7 +14187,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14344,7 +14283,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14387,7 +14326,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14714,7 +14653,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14730,7 +14669,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14746,7 +14685,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14762,7 +14701,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14778,7 +14717,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14793,9 +14732,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14803,7 +14740,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14814,7 +14751,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14823,7 +14760,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14835,7 +14772,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14843,7 +14780,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14939,7 +14876,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14982,7 +14919,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15309,7 +15246,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15325,7 +15262,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15341,7 +15278,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15357,7 +15294,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15373,7 +15310,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15388,9 +15325,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15398,7 +15333,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15409,7 +15344,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15418,7 +15353,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15430,7 +15365,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15438,7 +15373,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15534,7 +15469,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15577,7 +15512,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15904,7 +15839,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15920,7 +15855,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15936,7 +15871,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15952,7 +15887,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15968,7 +15903,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15983,9 +15918,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15993,7 +15926,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16004,7 +15937,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16013,7 +15946,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16025,7 +15958,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16033,7 +15966,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16129,7 +16062,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16172,7 +16105,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16499,7 +16432,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16515,7 +16448,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16531,7 +16464,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16547,7 +16480,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16563,7 +16496,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16578,9 +16511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16588,7 +16519,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16599,7 +16530,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16608,7 +16539,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16620,7 +16551,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16628,7 +16559,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16724,7 +16655,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16767,7 +16698,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17094,7 +17025,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17110,7 +17041,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17126,7 +17057,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17142,7 +17073,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17158,7 +17089,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17173,9 +17104,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17183,7 +17112,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17194,7 +17123,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17203,7 +17132,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17215,7 +17144,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17223,7 +17152,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17319,7 +17248,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17362,7 +17291,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17689,7 +17618,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17705,7 +17634,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17721,7 +17650,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17737,7 +17666,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17753,7 +17682,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17768,9 +17697,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17778,7 +17705,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17789,7 +17716,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17798,7 +17725,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17810,7 +17737,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17818,7 +17745,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17914,7 +17841,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17957,7 +17884,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18284,7 +18211,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18300,7 +18227,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18316,7 +18243,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18332,7 +18259,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18348,7 +18275,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18363,9 +18290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18373,7 +18298,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18384,7 +18309,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18393,7 +18318,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18405,7 +18330,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18413,7 +18338,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18509,7 +18434,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18552,7 +18477,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18879,7 +18804,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18895,7 +18820,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18911,7 +18836,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18927,7 +18852,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18943,7 +18868,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18958,9 +18883,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18968,7 +18891,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18979,7 +18902,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18988,7 +18911,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19000,7 +18923,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19008,7 +18931,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19104,7 +19027,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19147,7 +19070,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19474,7 +19397,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19490,7 +19413,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19506,7 +19429,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19522,7 +19445,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19538,7 +19461,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19553,9 +19476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19563,7 +19484,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19574,7 +19495,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19583,7 +19504,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19595,7 +19516,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19603,7 +19524,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19699,7 +19620,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19742,7 +19663,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20069,7 +19990,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20085,7 +20006,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20101,7 +20022,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20117,7 +20038,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20133,7 +20054,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20148,9 +20069,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20158,7 +20077,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20169,7 +20088,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20178,7 +20097,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20190,7 +20109,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20198,7 +20117,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20294,7 +20213,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20337,7 +20256,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20664,7 +20583,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20680,7 +20599,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20696,7 +20615,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20712,7 +20631,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20728,7 +20647,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20743,9 +20662,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20753,7 +20670,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20764,7 +20681,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20773,7 +20690,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20785,7 +20702,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20793,7 +20710,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20889,7 +20806,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20932,7 +20849,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21259,7 +21176,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21275,7 +21192,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21291,7 +21208,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21307,7 +21224,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21323,7 +21240,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21338,9 +21255,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21348,7 +21263,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21359,7 +21274,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21368,7 +21283,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21380,7 +21295,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21388,7 +21303,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21484,7 +21399,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21527,7 +21442,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21854,7 +21769,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21870,7 +21785,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21886,7 +21801,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21902,7 +21817,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21918,7 +21833,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21933,9 +21848,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21943,7 +21856,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21954,7 +21867,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21963,7 +21876,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21975,7 +21888,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21983,7 +21896,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22079,7 +21992,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22122,7 +22035,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22449,7 +22362,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22465,7 +22378,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22481,7 +22394,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22497,7 +22410,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22513,7 +22426,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22528,9 +22441,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22538,7 +22449,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22549,7 +22460,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22558,7 +22469,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22570,7 +22481,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22578,7 +22489,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22674,7 +22585,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22717,7 +22628,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23044,7 +22955,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23060,7 +22971,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23076,7 +22987,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23092,7 +23003,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23108,7 +23019,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23123,9 +23034,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23133,7 +23042,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23144,7 +23053,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23153,7 +23062,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23165,7 +23074,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23173,7 +23082,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23269,7 +23178,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23312,7 +23221,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23639,7 +23548,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23655,7 +23564,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23671,7 +23580,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23687,7 +23596,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23703,7 +23612,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23718,9 +23627,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23728,7 +23635,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23739,7 +23646,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23748,7 +23655,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23760,7 +23667,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23768,7 +23675,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23864,7 +23771,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23907,7 +23814,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24234,7 +24141,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24250,7 +24157,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24266,7 +24173,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24282,7 +24189,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24298,7 +24205,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24313,9 +24220,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24323,7 +24228,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24334,7 +24239,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24343,7 +24248,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24355,7 +24260,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24363,7 +24268,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24459,7 +24364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24502,7 +24407,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24829,7 +24734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24845,7 +24750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24861,7 +24766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24877,7 +24782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24893,7 +24798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24908,9 +24813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24918,7 +24821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24929,7 +24832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24938,7 +24841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24950,7 +24853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24958,7 +24861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25054,7 +24957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25097,7 +25000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25424,7 +25327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25440,7 +25343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25456,7 +25359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25472,7 +25375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25488,7 +25391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25503,9 +25406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>381</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25513,7 +25414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25524,7 +25425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25533,7 +25434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25545,7 +25446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25553,7 +25454,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25649,7 +25550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25692,7 +25593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26019,7 +25920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26035,7 +25936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26051,7 +25952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26067,7 +25968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26083,7 +25984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26098,9 +25999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26108,7 +26007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26119,7 +26018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26128,7 +26027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26140,7 +26039,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26148,7 +26047,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26244,7 +26143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26287,7 +26186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26614,7 +26513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26630,7 +26529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26646,7 +26545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26662,7 +26561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26678,7 +26577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26693,9 +26592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26703,7 +26600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26714,7 +26611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26723,7 +26620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26735,7 +26632,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26743,7 +26640,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26839,7 +26736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26882,7 +26779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27209,7 +27106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27225,7 +27122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27241,7 +27138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27257,7 +27154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27273,7 +27170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27288,9 +27185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27298,7 +27193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27309,7 +27204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27318,7 +27213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27330,7 +27225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27338,7 +27233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27434,7 +27329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27477,7 +27372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27804,7 +27699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27820,7 +27715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27836,7 +27731,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27852,7 +27747,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27868,7 +27763,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27883,9 +27778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27893,7 +27786,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27904,7 +27797,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27913,7 +27806,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27925,7 +27818,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27933,7 +27826,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28029,7 +27922,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28072,7 +27965,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28399,7 +28292,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28415,7 +28308,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28431,7 +28324,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28447,7 +28340,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28463,7 +28356,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28478,9 +28371,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28488,7 +28379,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28499,7 +28390,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28508,7 +28399,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28520,7 +28411,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28528,7 +28419,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28624,7 +28515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28667,7 +28558,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28994,7 +28885,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29010,7 +28901,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29026,7 +28917,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29042,7 +28933,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29058,7 +28949,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29073,9 +28964,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29083,7 +28972,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29094,7 +28983,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29103,7 +28992,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29115,7 +29004,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29123,7 +29012,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29219,7 +29108,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29262,7 +29151,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29589,7 +29478,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29605,7 +29494,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29621,7 +29510,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29637,7 +29526,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29653,7 +29542,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29668,9 +29557,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29678,7 +29565,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29689,7 +29576,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29698,7 +29585,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29710,7 +29597,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29718,7 +29605,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29814,7 +29701,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29857,7 +29744,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30184,7 +30071,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30200,7 +30087,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30216,7 +30103,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30232,7 +30119,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30248,7 +30135,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30263,9 +30150,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30273,7 +30158,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30284,7 +30169,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30293,7 +30178,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30305,7 +30190,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30409,7 +30294,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30452,7 +30337,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30779,7 +30664,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30795,7 +30680,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30811,7 +30696,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30827,7 +30712,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30843,7 +30728,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30858,9 +30743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30868,7 +30751,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30879,7 +30762,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30888,7 +30771,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30900,7 +30783,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30908,7 +30791,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31004,7 +30887,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31047,7 +30930,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31374,7 +31257,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31390,7 +31273,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31406,7 +31289,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31422,7 +31305,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31438,7 +31321,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31453,9 +31336,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31463,7 +31344,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31474,7 +31355,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31483,7 +31364,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31495,7 +31376,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31503,7 +31384,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31599,7 +31480,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31642,7 +31523,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31969,7 +31850,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31985,7 +31866,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32001,7 +31882,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32017,7 +31898,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32033,7 +31914,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32048,9 +31929,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32058,7 +31937,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32069,7 +31948,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32078,7 +31957,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32090,7 +31969,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32098,7 +31977,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32194,7 +32073,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32237,7 +32116,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32564,7 +32443,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32580,7 +32459,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32596,7 +32475,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32612,7 +32491,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32628,7 +32507,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32643,9 +32522,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32653,7 +32530,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32664,7 +32541,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32673,7 +32550,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32685,7 +32562,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32693,7 +32570,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32789,7 +32666,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32832,7 +32709,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33159,7 +33036,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33175,7 +33052,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33191,7 +33068,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33207,7 +33084,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33223,7 +33100,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33238,9 +33115,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33248,7 +33123,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33259,7 +33134,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33268,7 +33143,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33280,7 +33155,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33288,7 +33163,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33384,7 +33259,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33427,7 +33302,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33754,7 +33629,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33770,7 +33645,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33786,7 +33661,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33802,7 +33677,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33818,7 +33693,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33833,9 +33708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33843,7 +33716,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33854,7 +33727,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33863,7 +33736,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33875,7 +33748,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33883,7 +33756,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33979,7 +33852,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34022,7 +33895,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34349,7 +34222,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34365,7 +34238,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34381,7 +34254,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34397,7 +34270,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34413,7 +34286,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34428,9 +34301,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34438,7 +34309,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34449,7 +34320,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34458,7 +34329,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34470,7 +34341,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34478,7 +34349,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34574,7 +34445,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34617,7 +34488,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34944,7 +34815,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34960,7 +34831,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34976,7 +34847,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34992,7 +34863,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35008,7 +34879,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35023,9 +34894,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35033,7 +34902,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35044,7 +34913,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35053,7 +34922,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35065,7 +34934,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35073,7 +34942,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35169,7 +35038,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35212,7 +35081,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35539,7 +35408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35555,7 +35424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35571,7 +35440,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35587,7 +35456,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35603,7 +35472,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35618,9 +35487,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35628,7 +35495,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35639,7 +35506,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35648,7 +35515,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35660,7 +35527,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35668,7 +35535,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35764,7 +35631,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35807,7 +35674,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36134,7 +36001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36150,7 +36017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36341,7 +36208,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36763,7 +36630,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36779,7 +36646,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36795,7 +36662,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36811,7 +36678,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36827,7 +36694,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36842,9 +36709,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36852,7 +36717,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36863,7 +36728,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36872,7 +36737,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36884,7 +36749,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36892,7 +36757,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36988,7 +36853,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37031,7 +36896,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37358,7 +37223,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37374,7 +37239,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37390,7 +37255,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37406,7 +37271,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37422,7 +37287,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37437,9 +37302,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37447,7 +37310,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37458,7 +37321,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37467,7 +37330,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37479,7 +37342,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37487,7 +37350,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37583,7 +37446,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37626,7 +37489,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37953,7 +37816,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37969,7 +37832,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37985,7 +37848,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38001,7 +37864,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38017,7 +37880,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38032,9 +37895,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38042,7 +37903,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38053,7 +37914,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38062,7 +37923,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38074,7 +37935,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38082,7 +37943,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38178,7 +38039,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38221,7 +38082,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
